--- a/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>JP Core PhysicalExamCodes CodeSystem#physical-findings</t>
+    <t>JP Core Physical Exam Codes#physical-findings</t>
   </si>
   <si>
     <t>dateTime, Period</t>

--- a/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Profile</t>
   </si>
@@ -47,6 +47,30 @@
     <t>Method</t>
   </si>
   <si>
+    <t>jp-observation-labresult</t>
+  </si>
+  <si>
+    <t>JP Core Observation LabResult Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationLabResultCode_VS (preferred)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>jp-observation-physicalexam</t>
   </si>
   <si>
@@ -56,9 +80,6 @@
     <t>Observation Category Codes#exam</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>JP Core Physical Exam Codes#physical-findings</t>
   </si>
   <si>
@@ -68,9 +89,6 @@
     <t>CodeableConcept</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>jp-observation-socialhistory</t>
   </si>
   <si>
@@ -80,10 +98,7 @@
     <t>Observation Category Codes#social-history</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/socialHistory-code (preferred)</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationSocialHistoryCode_VS (preferred)</t>
   </si>
 </sst>
 </file>
@@ -217,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -272,10 +287,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -307,16 +322,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -325,6 +340,41 @@
         <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
@@ -80,7 +80,7 @@
     <t>Observation Category Codes#exam</t>
   </si>
   <si>
-    <t>JP Core Physical Exam Codes#physical-findings</t>
+    <t>JP Core Physical Exam Code CodeSystem#physical-findings</t>
   </si>
   <si>
     <t>dateTime, Period</t>

--- a/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Profile</t>
   </si>
@@ -80,7 +80,10 @@
     <t>Observation Category Codes#exam</t>
   </si>
   <si>
-    <t>JP Core Physical Exam Code CodeSystem#physical-findings</t>
+    <t>null#physical-findings</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS (preferred)</t>
   </si>
   <si>
     <t>dateTime, Period</t>
@@ -325,13 +328,13 @@
         <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -345,13 +348,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
@@ -360,10 +363,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>17</v>

--- a/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationLabResultCode_VS (preferred)</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS (preferred)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing</t>
@@ -83,13 +83,13 @@
     <t>null#physical-findings</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS (preferred)</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PhysicalExamCode_VS (preferred)</t>
   </si>
   <si>
     <t>dateTime, Period</t>
   </si>
   <si>
-    <t>CodeableConcept</t>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
     <t>jp-observation-socialhistory</t>
@@ -101,7 +101,7 @@
     <t>Observation Category Codes#social-history</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationSocialHistoryCode_VS (preferred)</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationSocialHistoryCode_VS (preferred)</t>
   </si>
 </sst>
 </file>
